--- a/data/trans_orig/P36B08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B08-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>15803</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9347</v>
+        <v>9521</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26309</v>
+        <v>25723</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01532973185412299</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009066497143180958</v>
+        <v>0.009235894396530058</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02552050272936898</v>
+        <v>0.0249524255632276</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -764,19 +764,19 @@
         <v>7121</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3088</v>
+        <v>3049</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14493</v>
+        <v>15264</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005414725123583889</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002348275031343959</v>
+        <v>0.002318571291176017</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01102043531673855</v>
+        <v>0.01160654887526456</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -785,19 +785,19 @@
         <v>22924</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14470</v>
+        <v>14400</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33339</v>
+        <v>34106</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009771614738193683</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006168099495971776</v>
+        <v>0.00613793256803905</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01421091332526371</v>
+        <v>0.01453813776084683</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>65515</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>50563</v>
+        <v>52051</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>83552</v>
+        <v>82837</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06355184210303763</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04904779069435736</v>
+        <v>0.05049098871757814</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08104871301389309</v>
+        <v>0.08035466019181325</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>56</v>
@@ -835,19 +835,19 @@
         <v>57588</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>42773</v>
+        <v>42755</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73632</v>
+        <v>73787</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04378928740430257</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03252441795872949</v>
+        <v>0.03251062813445069</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0559891926625047</v>
+        <v>0.05610683150283657</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>119</v>
@@ -856,19 +856,19 @@
         <v>123103</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>100816</v>
+        <v>102746</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>144468</v>
+        <v>146334</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05247342365000689</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04297357099665979</v>
+        <v>0.04379638063150687</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0615805108831067</v>
+        <v>0.06237577071968797</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>287862</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>257701</v>
+        <v>260589</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>316979</v>
+        <v>317139</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2792368307342094</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2499789358827321</v>
+        <v>0.2527813028235944</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3074810549252915</v>
+        <v>0.3076363299016696</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>286</v>
@@ -906,19 +906,19 @@
         <v>292081</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>263215</v>
+        <v>262923</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>323130</v>
+        <v>322529</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2220956764825459</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2001463315660937</v>
+        <v>0.1999239079823384</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2457049054186063</v>
+        <v>0.2452477518894007</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>570</v>
@@ -927,19 +927,19 @@
         <v>579943</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>537376</v>
+        <v>542303</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>623928</v>
+        <v>623278</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.247204857776299</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2290602425089587</v>
+        <v>0.2311605915489411</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2659539299399843</v>
+        <v>0.2656766550301328</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>396649</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>363422</v>
+        <v>366571</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>425035</v>
+        <v>427807</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3847638785132499</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3525330210123558</v>
+        <v>0.3555869854404391</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.412299690247537</v>
+        <v>0.4149885426486247</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>573</v>
@@ -977,19 +977,19 @@
         <v>583941</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>548927</v>
+        <v>547177</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>618497</v>
+        <v>619030</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4440234814597643</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4173989818538679</v>
+        <v>0.4160682431449303</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4702996020403734</v>
+        <v>0.4707051247894348</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>979</v>
@@ -998,19 +998,19 @@
         <v>980589</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>935268</v>
+        <v>928917</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1025544</v>
+        <v>1025795</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4179834034587753</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3986649826943344</v>
+        <v>0.3959574563283668</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4371457937586818</v>
+        <v>0.4372526644350491</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>265060</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>239474</v>
+        <v>237384</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>296276</v>
+        <v>293597</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2571177167953801</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2322988020108094</v>
+        <v>0.2302709897606032</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2873988713841387</v>
+        <v>0.2848002662266823</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>369</v>
@@ -1048,19 +1048,19 @@
         <v>374382</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>342548</v>
+        <v>342009</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>410916</v>
+        <v>410686</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2846768295298034</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.260470585970778</v>
+        <v>0.2600603742767328</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3124565809290518</v>
+        <v>0.3122821891028706</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>637</v>
@@ -1069,19 +1069,19 @@
         <v>639442</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>597898</v>
+        <v>602660</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>680358</v>
+        <v>687502</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2725667003767251</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2548582171924281</v>
+        <v>0.2568883654821461</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2900074113850399</v>
+        <v>0.2930527498679062</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>52421</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39304</v>
+        <v>39508</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66205</v>
+        <v>68073</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03095579032686046</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02321013314739823</v>
+        <v>0.02333038109808939</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03909553210841772</v>
+        <v>0.04019868429643589</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -1194,19 +1194,19 @@
         <v>29376</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19442</v>
+        <v>18976</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40816</v>
+        <v>41759</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01851505422437582</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01225372888350618</v>
+        <v>0.01196009019894781</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02572521845378366</v>
+        <v>0.02631965598828785</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -1215,19 +1215,19 @@
         <v>81797</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64981</v>
+        <v>66322</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>100626</v>
+        <v>99725</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02493796087377641</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01981116226180315</v>
+        <v>0.02022002357969485</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03067837416082348</v>
+        <v>0.03040373763296115</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>136602</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>116653</v>
+        <v>116007</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>159607</v>
+        <v>159684</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08066691504648917</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06888643753058518</v>
+        <v>0.06850466679006902</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09425166164266288</v>
+        <v>0.09429728289389734</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>72</v>
@@ -1265,19 +1265,19 @@
         <v>74321</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>58157</v>
+        <v>58139</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>93798</v>
+        <v>92600</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04684265994549853</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03665477238783307</v>
+        <v>0.03664359103882829</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05911829895835229</v>
+        <v>0.05836312438241396</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>206</v>
@@ -1286,19 +1286,19 @@
         <v>210924</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>181883</v>
+        <v>183935</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>238826</v>
+        <v>241113</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06430545565224018</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05545183622594184</v>
+        <v>0.05607734022818713</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07281219605561756</v>
+        <v>0.07350941360518388</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>460202</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>424342</v>
+        <v>423930</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>496261</v>
+        <v>498779</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2717600984658634</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2505838542049577</v>
+        <v>0.2503403777003148</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2930535552495472</v>
+        <v>0.2945408291180415</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>380</v>
@@ -1336,19 +1336,19 @@
         <v>377415</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>345704</v>
+        <v>345640</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>415237</v>
+        <v>414957</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2378748782546605</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.21788813729263</v>
+        <v>0.2178479768617163</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2617130114354376</v>
+        <v>0.2615361250995893</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>832</v>
@@ -1357,19 +1357,19 @@
         <v>837617</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>791624</v>
+        <v>787916</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>884199</v>
+        <v>884191</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2553691490452347</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2413469342862126</v>
+        <v>0.2402164671741706</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2695707238619433</v>
+        <v>0.2695681622462259</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>755571</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>712539</v>
+        <v>717843</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>795441</v>
+        <v>794099</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4461821530254959</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.420771118207197</v>
+        <v>0.4239030844606941</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4697267338055634</v>
+        <v>0.4689338118879026</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>673</v>
@@ -1407,19 +1407,19 @@
         <v>690047</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>649230</v>
+        <v>650941</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>728370</v>
+        <v>728602</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4349182909863236</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4091922176441408</v>
+        <v>0.4102705565283482</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4590722581678289</v>
+        <v>0.459218788478601</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1404</v>
@@ -1428,19 +1428,19 @@
         <v>1445618</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1393536</v>
+        <v>1391017</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1503127</v>
+        <v>1503782</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4407336007713195</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4248553115695166</v>
+        <v>0.4240872284233062</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4582669094147788</v>
+        <v>0.4584664249517705</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>288617</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>259708</v>
+        <v>258444</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>325257</v>
+        <v>321524</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1704350431352911</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1533633748597188</v>
+        <v>0.152617114023628</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1920719448003384</v>
+        <v>0.1898673884723029</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>399</v>
@@ -1478,19 +1478,19 @@
         <v>415453</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>380952</v>
+        <v>380652</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>450011</v>
+        <v>451826</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2618491165891416</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2401037398862644</v>
+        <v>0.239915006368005</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2836297226732644</v>
+        <v>0.2847737840094424</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>678</v>
@@ -1499,19 +1499,19 @@
         <v>704070</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>652933</v>
+        <v>660567</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>749137</v>
+        <v>755232</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2146538336574293</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1990633676357698</v>
+        <v>0.2013907469174524</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2283934993050167</v>
+        <v>0.2302519178781254</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>4652</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1826</v>
+        <v>1805</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10208</v>
+        <v>10287</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008437378370409273</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003310964401468927</v>
+        <v>0.00327331518990492</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01851316843454589</v>
+        <v>0.0186562515155118</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1624,19 +1624,19 @@
         <v>5079</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1995</v>
+        <v>1968</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11149</v>
+        <v>12248</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01066017322366879</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004188525324997064</v>
+        <v>0.004131796071912683</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02340258814256014</v>
+        <v>0.02570783858835805</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1645,19 +1645,19 @@
         <v>9731</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4869</v>
+        <v>4826</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16986</v>
+        <v>17399</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009467681122484228</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004737127512271569</v>
+        <v>0.004695542260778982</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01652649286721265</v>
+        <v>0.01692818728929157</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>25620</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16418</v>
+        <v>17438</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35776</v>
+        <v>37991</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04646306732356006</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02977490390620648</v>
+        <v>0.03162515813295316</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06488107117729616</v>
+        <v>0.06889888639995985</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -1695,19 +1695,19 @@
         <v>14649</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8810</v>
+        <v>8670</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22564</v>
+        <v>23446</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03074788712698629</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01849201513368873</v>
+        <v>0.01819789913518288</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04736187684069325</v>
+        <v>0.04921466439130783</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>42</v>
@@ -1716,19 +1716,19 @@
         <v>40269</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>28172</v>
+        <v>29082</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>53771</v>
+        <v>54041</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03917881732534691</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0274096403991545</v>
+        <v>0.02829513295809915</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05231570270068299</v>
+        <v>0.05257846202566533</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>155900</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>135702</v>
+        <v>135342</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>179647</v>
+        <v>178655</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2827313448784679</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2461016208457996</v>
+        <v>0.2454485603516025</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.325796886281292</v>
+        <v>0.3239976660732773</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>114</v>
@@ -1766,19 +1766,19 @@
         <v>118937</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>98594</v>
+        <v>98989</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>137009</v>
+        <v>137244</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2496519640690917</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2069502993239967</v>
+        <v>0.207781107476629</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2875860920158383</v>
+        <v>0.2880778707891695</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>263</v>
@@ -1787,19 +1787,19 @@
         <v>274838</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>245798</v>
+        <v>246294</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>303997</v>
+        <v>303952</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2673984962195562</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2391450824639182</v>
+        <v>0.2396277274344994</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2957688486305137</v>
+        <v>0.2957252230155002</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>232210</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>207867</v>
+        <v>209592</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>256080</v>
+        <v>256640</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4211221954444164</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3769744333889754</v>
+        <v>0.3801027919245497</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4644118719452835</v>
+        <v>0.4654271560774689</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>178</v>
@@ -1837,19 +1837,19 @@
         <v>186220</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>167049</v>
+        <v>164382</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>207149</v>
+        <v>206311</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3908809391258138</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3506399552453158</v>
+        <v>0.3450426848397141</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4348101713553204</v>
+        <v>0.4330524760902075</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>400</v>
@@ -1858,19 +1858,19 @@
         <v>418431</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>385429</v>
+        <v>389296</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>452710</v>
+        <v>450370</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4071048651606204</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3749969278833646</v>
+        <v>0.378758818474047</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4404566533405402</v>
+        <v>0.4381796419646655</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>133025</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>113524</v>
+        <v>113884</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>156542</v>
+        <v>154892</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2412460139831464</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2058794298690725</v>
+        <v>0.2065336400821041</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2838958509428332</v>
+        <v>0.2809023283249262</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>140</v>
@@ -1908,19 +1908,19 @@
         <v>151527</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>131844</v>
+        <v>130360</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>173990</v>
+        <v>174098</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3180590364544395</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2767434304070974</v>
+        <v>0.2736278191516204</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3652089411536437</v>
+        <v>0.3654360212643197</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>264</v>
@@ -1929,19 +1929,19 @@
         <v>284552</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>256300</v>
+        <v>255372</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>316399</v>
+        <v>316396</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2768501401719922</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.249362577739828</v>
+        <v>0.2484602604999487</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3078352259714684</v>
+        <v>0.3078317519121512</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>72877</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>57388</v>
+        <v>57058</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>91830</v>
+        <v>90849</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02224758188668367</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01751937327724724</v>
+        <v>0.01741866342211635</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02803366066549823</v>
+        <v>0.02773423531789415</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>41</v>
@@ -2054,19 +2054,19 @@
         <v>41576</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>30512</v>
+        <v>30379</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>55415</v>
+        <v>57182</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01230732420657574</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0090322567068701</v>
+        <v>0.008992883038614083</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01640391561454857</v>
+        <v>0.01692702326660054</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>115</v>
@@ -2075,19 +2075,19 @@
         <v>114452</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>92428</v>
+        <v>94452</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>135847</v>
+        <v>134877</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01720094377874818</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01389083863412923</v>
+        <v>0.01419510234584898</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02041631669812656</v>
+        <v>0.02027057963323004</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>227737</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>201802</v>
+        <v>201239</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>257842</v>
+        <v>257855</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06952306609342807</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06160556891666689</v>
+        <v>0.06143376083134019</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07871342143293031</v>
+        <v>0.07871742106184386</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>143</v>
@@ -2125,19 +2125,19 @@
         <v>146558</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>124013</v>
+        <v>122715</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>172687</v>
+        <v>169042</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04338416658841816</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03671036456833505</v>
+        <v>0.03632615217810829</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05111895993243583</v>
+        <v>0.05004015338444891</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>367</v>
@@ -2146,19 +2146,19 @@
         <v>374295</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>335073</v>
+        <v>341554</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>413261</v>
+        <v>413717</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05625242758619303</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05035784867796158</v>
+        <v>0.05133174000452867</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06210858855591012</v>
+        <v>0.06217716048490731</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>903964</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>855846</v>
+        <v>850740</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>955460</v>
+        <v>953208</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2759598947438901</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2612703604668042</v>
+        <v>0.259711628170563</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2916804788581751</v>
+        <v>0.290992802895282</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>780</v>
@@ -2196,19 +2196,19 @@
         <v>788433</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>737195</v>
+        <v>741173</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>837713</v>
+        <v>836185</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2333929152320065</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2182252385607393</v>
+        <v>0.2194027696530869</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2479808690434957</v>
+        <v>0.2475283617997255</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1665</v>
@@ -2217,19 +2217,19 @@
         <v>1692398</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1624858</v>
+        <v>1620670</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1767591</v>
+        <v>1758087</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2543487707813523</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2441982682669872</v>
+        <v>0.2435688181775571</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2656494061193888</v>
+        <v>0.2642211993156313</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>1384429</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1333699</v>
+        <v>1330762</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1442273</v>
+        <v>1445909</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.422634987314263</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4071480844351833</v>
+        <v>0.4062514777558484</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4402932889728612</v>
+        <v>0.4414035002830224</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1424</v>
@@ -2267,19 +2267,19 @@
         <v>1460208</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1404558</v>
+        <v>1395700</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1519051</v>
+        <v>1512589</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4322524563775726</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4157788934013643</v>
+        <v>0.4131566988535063</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4496713267678598</v>
+        <v>0.4477582278075399</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2783</v>
@@ -2288,19 +2288,19 @@
         <v>2844638</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2764469</v>
+        <v>2761294</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2917745</v>
+        <v>2924166</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4275177466388947</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4154693149428271</v>
+        <v>0.4149920450093524</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4385050094211628</v>
+        <v>0.4394699334132656</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>686702</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>640876</v>
+        <v>638256</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>730244</v>
+        <v>731651</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2096344699617352</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1956448754905807</v>
+        <v>0.1948450601177918</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2229271383563823</v>
+        <v>0.2233566821408272</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>908</v>
@@ -2338,19 +2338,19 @@
         <v>941362</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>884049</v>
+        <v>888893</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>992730</v>
+        <v>996748</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.278663137595427</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.261697149029724</v>
+        <v>0.2631312348683095</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2938691156839452</v>
+        <v>0.2950584840643686</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1579</v>
@@ -2359,19 +2359,19 @@
         <v>1628064</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1555063</v>
+        <v>1564830</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1703703</v>
+        <v>1702685</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2446801112148118</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2337088436282282</v>
+        <v>0.2351767549647407</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2560478895813975</v>
+        <v>0.2558947600376924</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>18805</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11180</v>
+        <v>11968</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30315</v>
+        <v>31024</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01937624029884374</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01151921256396165</v>
+        <v>0.0123312773186334</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03123626465477645</v>
+        <v>0.03196680432562904</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -2723,19 +2723,19 @@
         <v>16640</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9558</v>
+        <v>9356</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27701</v>
+        <v>26320</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01243832521729138</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007144452417711027</v>
+        <v>0.006993510829558004</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02070605793256878</v>
+        <v>0.01967435411241539</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -2744,19 +2744,19 @@
         <v>35445</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25570</v>
+        <v>24200</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51286</v>
+        <v>49237</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01535531869005147</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01107750312926702</v>
+        <v>0.01048408264614881</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02221792748535951</v>
+        <v>0.02133033693479609</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>39840</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29149</v>
+        <v>27653</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>54221</v>
+        <v>52625</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04105007990686819</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03003452061023921</v>
+        <v>0.02849374527304114</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05586824997839373</v>
+        <v>0.0542244344758055</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>41</v>
@@ -2794,19 +2794,19 @@
         <v>45588</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32888</v>
+        <v>33154</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60909</v>
+        <v>62137</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03407725020676787</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02458404972993574</v>
+        <v>0.02478270034203238</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04552964173140223</v>
+        <v>0.04644716164785184</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>80</v>
@@ -2815,19 +2815,19 @@
         <v>85428</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>68266</v>
+        <v>68789</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>104991</v>
+        <v>106848</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03700892326456341</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02957395034506074</v>
+        <v>0.02980065660092701</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04548405135927195</v>
+        <v>0.04628847537102104</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>203606</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>177838</v>
+        <v>179890</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>232303</v>
+        <v>229252</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.209792477348006</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1832419156123664</v>
+        <v>0.1853565177027635</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2393621678986462</v>
+        <v>0.236218352723691</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>184</v>
@@ -2865,19 +2865,19 @@
         <v>196802</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>174143</v>
+        <v>171656</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>226162</v>
+        <v>224377</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1471086785817056</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1301717005085584</v>
+        <v>0.1283125909118056</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1690551946755085</v>
+        <v>0.16772139597347</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>376</v>
@@ -2886,19 +2886,19 @@
         <v>400407</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>362990</v>
+        <v>365669</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>438048</v>
+        <v>438746</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1734636036131882</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1572540182542441</v>
+        <v>0.1584146238491485</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1897702488105376</v>
+        <v>0.1900727136835449</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>293572</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>264172</v>
+        <v>264160</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>324843</v>
+        <v>321448</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3024927065317218</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2721994581760933</v>
+        <v>0.2721868576112764</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3347138667081832</v>
+        <v>0.331215535764079</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>386</v>
@@ -2936,19 +2936,19 @@
         <v>417064</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>384622</v>
+        <v>383376</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>452403</v>
+        <v>453520</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3117545697073146</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2875040012295899</v>
+        <v>0.2865728637560344</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.338170159223779</v>
+        <v>0.3390053562954463</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>656</v>
@@ -2957,19 +2957,19 @@
         <v>710636</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>665621</v>
+        <v>665371</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>757866</v>
+        <v>759151</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3078604899857801</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2883589389580717</v>
+        <v>0.2882509554937336</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3283213531864578</v>
+        <v>0.3288778877347233</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>414688</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>381969</v>
+        <v>384836</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>444672</v>
+        <v>446484</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4272884959145603</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3935752633402605</v>
+        <v>0.396529870013307</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4581836897685747</v>
+        <v>0.4600503960452401</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>621</v>
@@ -3007,19 +3007,19 @@
         <v>661703</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>625284</v>
+        <v>624094</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>697612</v>
+        <v>698564</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4946211762869205</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4673980890955968</v>
+        <v>0.4665087166411939</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5214636182755847</v>
+        <v>0.5221747184992268</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1006</v>
@@ -3028,19 +3028,19 @@
         <v>1076390</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1026525</v>
+        <v>1025278</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1123158</v>
+        <v>1124128</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4663116644464168</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4447090234908689</v>
+        <v>0.4441691376184841</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4865724104906196</v>
+        <v>0.4869928254510624</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>32752</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22807</v>
+        <v>22580</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45988</v>
+        <v>45099</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01669369957152205</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01162482274505688</v>
+        <v>0.01150936128884296</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02344060964979326</v>
+        <v>0.0229874736407341</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -3153,19 +3153,19 @@
         <v>17732</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10996</v>
+        <v>11331</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28706</v>
+        <v>28208</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0101333050950213</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006283750959870303</v>
+        <v>0.00647540994141808</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01640423225312825</v>
+        <v>0.0161199601880058</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -3174,19 +3174,19 @@
         <v>50484</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37332</v>
+        <v>37446</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65320</v>
+        <v>67526</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01360085645710651</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01005772020213637</v>
+        <v>0.01008825705125677</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01759787583388589</v>
+        <v>0.01819226483058499</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>97184</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>78261</v>
+        <v>78323</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>117472</v>
+        <v>117588</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04953520964303838</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03988997513276408</v>
+        <v>0.03992158826834658</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05987628274807096</v>
+        <v>0.05993552297083111</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>51</v>
@@ -3224,19 +3224,19 @@
         <v>53428</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>40852</v>
+        <v>41274</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>69653</v>
+        <v>70193</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03053181387655826</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02334525514434585</v>
+        <v>0.02358665827136599</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03980395094318424</v>
+        <v>0.0401124680857344</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>144</v>
@@ -3245,19 +3245,19 @@
         <v>150612</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>128246</v>
+        <v>127711</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>177936</v>
+        <v>176365</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04057621762550025</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03455084257993916</v>
+        <v>0.03440652472209014</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04793761475902233</v>
+        <v>0.04751454950091843</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>473160</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>434228</v>
+        <v>434114</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>510579</v>
+        <v>511982</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2411728925470295</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2213289479377485</v>
+        <v>0.2212710124444971</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2602454084541874</v>
+        <v>0.2609606295649847</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>303</v>
@@ -3295,19 +3295,19 @@
         <v>325827</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>293506</v>
+        <v>291577</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>362056</v>
+        <v>359761</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1861968527360581</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1677267241362278</v>
+        <v>0.1666241043750972</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2069001079682952</v>
+        <v>0.2055890377263691</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>755</v>
@@ -3316,19 +3316,19 @@
         <v>798987</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>747856</v>
+        <v>752338</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>852429</v>
+        <v>850582</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2152548983172235</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2014797464140107</v>
+        <v>0.2026870822778341</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2296525105312895</v>
+        <v>0.229154896904892</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>730174</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>692253</v>
+        <v>683124</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>775131</v>
+        <v>773511</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3721744169808149</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3528458987211753</v>
+        <v>0.3481926849664916</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3950895696617971</v>
+        <v>0.3942637868984303</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>582</v>
@@ -3366,19 +3366,19 @@
         <v>621865</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>580722</v>
+        <v>581512</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>663303</v>
+        <v>662449</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3553707873668382</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3318591552813169</v>
+        <v>0.3323104222569787</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3790505364914245</v>
+        <v>0.3785623891942809</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1258</v>
@@ -3387,19 +3387,19 @@
         <v>1352039</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1292518</v>
+        <v>1289574</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1413674</v>
+        <v>1412518</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3642524863202523</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3482168049555608</v>
+        <v>0.347423740208653</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3808575332912463</v>
+        <v>0.3805461151580205</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>628644</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>585229</v>
+        <v>584669</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>675851</v>
+        <v>669670</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3204237812575951</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2982948791343962</v>
+        <v>0.2980097642097586</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3444856659738293</v>
+        <v>0.3413353357926583</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>675</v>
@@ -3437,19 +3437,19 @@
         <v>731053</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>690636</v>
+        <v>689483</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>775676</v>
+        <v>773870</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4177672409255241</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3946702790977794</v>
+        <v>0.3940115511381609</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4432669793874914</v>
+        <v>0.4422352039348246</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1275</v>
@@ -3458,19 +3458,19 @@
         <v>1359697</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1296184</v>
+        <v>1299891</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1420189</v>
+        <v>1422362</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3663155412799174</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3492044948058656</v>
+        <v>0.3502033555555499</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3826125716199447</v>
+        <v>0.3831981457634533</v>
       </c>
     </row>
     <row r="15">
@@ -3565,16 +3565,16 @@
         <v>1031</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9922</v>
+        <v>10197</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008435433173572756</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002146982331895847</v>
+        <v>0.00214729222431083</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02066327376529363</v>
+        <v>0.02123702786389989</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6674</v>
+        <v>6387</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004551304993004161</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01461359199242994</v>
+        <v>0.01398538181180408</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -3604,19 +3604,19 @@
         <v>6129</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2959</v>
+        <v>2936</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13300</v>
+        <v>13140</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006541992906178994</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003158477444770197</v>
+        <v>0.003134223416940216</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01419605907046283</v>
+        <v>0.01402577714669402</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>11700</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5771</v>
+        <v>5865</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20951</v>
+        <v>21059</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02436775952990839</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01202000922330266</v>
+        <v>0.01221452791474089</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04363513188252736</v>
+        <v>0.04385829635100339</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -3654,19 +3654,19 @@
         <v>4941</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1963</v>
+        <v>1926</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11302</v>
+        <v>10412</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01081794206957829</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004299002440438715</v>
+        <v>0.004217539125059024</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02474751226809571</v>
+        <v>0.0227993733593965</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -3675,19 +3675,19 @@
         <v>16641</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10390</v>
+        <v>10182</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>28923</v>
+        <v>27010</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01776247546035218</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01109032353261967</v>
+        <v>0.01086846546161976</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03087227656983417</v>
+        <v>0.02883024042445911</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>102301</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>84185</v>
+        <v>83415</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>124547</v>
+        <v>122511</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2130587837049333</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1753291465577097</v>
+        <v>0.1737266999272602</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2593913452363462</v>
+        <v>0.2551503233944923</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>57</v>
@@ -3725,19 +3725,19 @@
         <v>61459</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>47301</v>
+        <v>47591</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>78229</v>
+        <v>78664</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1345723547097696</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1035714918695154</v>
+        <v>0.104207269774221</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1712926193781016</v>
+        <v>0.1722458779333402</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>152</v>
@@ -3746,19 +3746,19 @@
         <v>163759</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>140529</v>
+        <v>141566</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>191153</v>
+        <v>189144</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1747981089293574</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1500022447004678</v>
+        <v>0.1511092109986207</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2040386383144397</v>
+        <v>0.2018939060832323</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>178872</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>157127</v>
+        <v>157404</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>202056</v>
+        <v>204544</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3725321153753661</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3272434230421817</v>
+        <v>0.3278220625493855</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4208158617426988</v>
+        <v>0.4259980725105181</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>131</v>
@@ -3796,19 +3796,19 @@
         <v>144149</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>123375</v>
+        <v>124131</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>166715</v>
+        <v>165580</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3156344562589557</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2701462386280746</v>
+        <v>0.2718022620355648</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.365046964445184</v>
+        <v>0.3625606795055133</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>293</v>
@@ -3817,19 +3817,19 @@
         <v>323021</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>292835</v>
+        <v>291021</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>355187</v>
+        <v>352340</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3447955644987973</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3125748315361604</v>
+        <v>0.3106388186175996</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.379130317265337</v>
+        <v>0.3760912673580535</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>183229</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>160125</v>
+        <v>162358</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>206879</v>
+        <v>207228</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3816059082162195</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3334874266410791</v>
+        <v>0.3381384919682063</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4308613283853282</v>
+        <v>0.4315888731263784</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>216</v>
@@ -3867,19 +3867,19 @@
         <v>244069</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>220209</v>
+        <v>221220</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>266614</v>
+        <v>264929</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5344239419686923</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4821786275033336</v>
+        <v>0.484392170220625</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5837885463980494</v>
+        <v>0.5800983428833172</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>381</v>
@@ -3888,19 +3888,19 @@
         <v>427298</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>396281</v>
+        <v>396455</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>461556</v>
+        <v>458726</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4561018582053141</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.422993739882606</v>
+        <v>0.4231800954042657</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4926685809669154</v>
+        <v>0.4896478260893803</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>55607</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42347</v>
+        <v>41426</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71648</v>
+        <v>71045</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0162946489398933</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01240912118504905</v>
+        <v>0.01213932514248902</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02099535133358128</v>
+        <v>0.02081849784395978</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -4013,19 +4013,19 @@
         <v>36451</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26227</v>
+        <v>25343</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49860</v>
+        <v>49427</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01028407024714938</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007399457531679611</v>
+        <v>0.007150291705716376</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01406727557520188</v>
+        <v>0.01394517840826975</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>90</v>
@@ -4034,19 +4034,19 @@
         <v>92058</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>74413</v>
+        <v>74619</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>112119</v>
+        <v>114346</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01323241404363772</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01069615734124146</v>
+        <v>0.01072583877518181</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0161160162309683</v>
+        <v>0.01643623661049884</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>148723</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>125964</v>
+        <v>125515</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>173982</v>
+        <v>174004</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04358102468183887</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03691169135832433</v>
+        <v>0.03678005383933296</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05098272642037351</v>
+        <v>0.05098894248843353</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>97</v>
@@ -4084,19 +4084,19 @@
         <v>103957</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>83555</v>
+        <v>84384</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>126396</v>
+        <v>126485</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02932986917987899</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.023573929661045</v>
+        <v>0.02380766930764367</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03566064156671219</v>
+        <v>0.03568579803002872</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>240</v>
@@ -4105,19 +4105,19 @@
         <v>252680</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>222287</v>
+        <v>220902</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>284593</v>
+        <v>285853</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0363204283364737</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03195170898195861</v>
+        <v>0.03175258328715823</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04090763141513504</v>
+        <v>0.04108866881979142</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>779066</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>729159</v>
+        <v>725495</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>830310</v>
+        <v>828969</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2282928683148135</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2136682854801895</v>
+        <v>0.2125947007419102</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2433089480757472</v>
+        <v>0.2429160851933467</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>544</v>
@@ -4155,19 +4155,19 @@
         <v>584087</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>540414</v>
+        <v>534362</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>631847</v>
+        <v>631332</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1647916065765015</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.152470008800334</v>
+        <v>0.1507623541422922</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1782662592662998</v>
+        <v>0.1781210513133303</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1283</v>
@@ -4176,19 +4176,19 @@
         <v>1363154</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1291066</v>
+        <v>1299905</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1427665</v>
+        <v>1429781</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.195940612468622</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1855786652234732</v>
+        <v>0.1868492635861125</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2052135970510522</v>
+        <v>0.2055177169868192</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>1202618</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1140311</v>
+        <v>1144205</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1258347</v>
+        <v>1263987</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3524078059000477</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3341497840793691</v>
+        <v>0.3352909192839509</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3687382696203241</v>
+        <v>0.3703909429138837</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1099</v>
@@ -4226,19 +4226,19 @@
         <v>1183078</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1125723</v>
+        <v>1120372</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1242936</v>
+        <v>1236057</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3337882686313254</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3176063291959446</v>
+        <v>0.3160965888234046</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3506761758944902</v>
+        <v>0.3487353848885082</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2207</v>
@@ -4247,19 +4247,19 @@
         <v>2385697</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2309138</v>
+        <v>2307198</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2469550</v>
+        <v>2472800</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3429216316577496</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.331917034667912</v>
+        <v>0.3316382314273141</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3549748159889673</v>
+        <v>0.3554419693283054</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>1226560</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1172518</v>
+        <v>1171264</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1289382</v>
+        <v>1284332</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3594236521634067</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3435874851117837</v>
+        <v>0.3432201497797568</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3778327193814252</v>
+        <v>0.3763529302163742</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1512</v>
@@ -4297,19 +4297,19 @@
         <v>1636825</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1570884</v>
+        <v>1578820</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1692031</v>
+        <v>1705925</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4618061853651447</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4432020296769648</v>
+        <v>0.4454408103263028</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4773816984545708</v>
+        <v>0.4813016881894741</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2662</v>
@@ -4318,19 +4318,19 @@
         <v>2863385</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2783602</v>
+        <v>2784237</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2943593</v>
+        <v>2947850</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4115849134935169</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4001168423246619</v>
+        <v>0.4002080672320928</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.423114083901547</v>
+        <v>0.4237260125413264</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>9955</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4779</v>
+        <v>5055</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17654</v>
+        <v>17696</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01323140059003428</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006352124958419543</v>
+        <v>0.006718036684663246</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02346389954767566</v>
+        <v>0.02351969333787546</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -4682,19 +4682,19 @@
         <v>10993</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5522</v>
+        <v>5665</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20035</v>
+        <v>19669</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01110213124476107</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00557673473472294</v>
+        <v>0.00572067696006587</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02023301125326063</v>
+        <v>0.01986395864768784</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -4703,19 +4703,19 @@
         <v>20948</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12934</v>
+        <v>12258</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32912</v>
+        <v>30864</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01202147919985697</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007422412855650349</v>
+        <v>0.007034298080990721</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01888699853321814</v>
+        <v>0.01771173536608658</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>23892</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14770</v>
+        <v>14801</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34390</v>
+        <v>34333</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03175509184797326</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01963047380555606</v>
+        <v>0.01967188753387166</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04570720764912074</v>
+        <v>0.04563249280136115</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -4753,19 +4753,19 @@
         <v>23371</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14745</v>
+        <v>14671</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35347</v>
+        <v>34465</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02360281844177595</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01489143971634452</v>
+        <v>0.01481671652206139</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03569686521689219</v>
+        <v>0.03480657229066623</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>44</v>
@@ -4774,19 +4774,19 @@
         <v>47263</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>34668</v>
+        <v>34539</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>64716</v>
+        <v>61673</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02712269999269759</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01989436477551436</v>
+        <v>0.01982056319838773</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03713791777414695</v>
+        <v>0.03539185531497394</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>143402</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>121253</v>
+        <v>125670</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>166546</v>
+        <v>168106</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1905962088908883</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1611574433024213</v>
+        <v>0.1670275369939337</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.221356701182583</v>
+        <v>0.2234297891421144</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>152</v>
@@ -4824,19 +4824,19 @@
         <v>169927</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>147835</v>
+        <v>148611</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>197957</v>
+        <v>194683</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.171609973122925</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1492998181740231</v>
+        <v>0.1500833524524184</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1999184720430931</v>
+        <v>0.1966111685602284</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>296</v>
@@ -4845,19 +4845,19 @@
         <v>313329</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>280510</v>
+        <v>282083</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>347034</v>
+        <v>347598</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1798076006645013</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1609738148894166</v>
+        <v>0.1618764786634478</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1991496614756498</v>
+        <v>0.1994731962100625</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>357371</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>329982</v>
+        <v>330409</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>384791</v>
+        <v>382820</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4749821932152855</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4385801455958211</v>
+        <v>0.4391472474022947</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5114262427008832</v>
+        <v>0.5088063182193406</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>369</v>
@@ -4895,19 +4895,19 @@
         <v>411680</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>381379</v>
+        <v>378611</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>444165</v>
+        <v>441704</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.415758596561592</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3851570742401557</v>
+        <v>0.3823611730962372</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4485654659312115</v>
+        <v>0.4460791286593092</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>731</v>
@@ -4916,19 +4916,19 @@
         <v>769051</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>724133</v>
+        <v>728834</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>807860</v>
+        <v>812657</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4413293833659318</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.415552491453755</v>
+        <v>0.4182503798076304</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4636003321373185</v>
+        <v>0.4663530151515956</v>
       </c>
     </row>
     <row r="8">
@@ -4945,19 +4945,19 @@
         <v>217768</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>193526</v>
+        <v>195400</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>244736</v>
+        <v>247288</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2894351054558187</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2572158566245226</v>
+        <v>0.2597063055506947</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3252787838448865</v>
+        <v>0.3286712642185252</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>336</v>
@@ -4966,19 +4966,19 @@
         <v>374219</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>342677</v>
+        <v>341260</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>406903</v>
+        <v>404846</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3779264806289459</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3460711279634366</v>
+        <v>0.3446406666987953</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4109338651970654</v>
+        <v>0.4088562931493951</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>557</v>
@@ -4987,19 +4987,19 @@
         <v>591987</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>553815</v>
+        <v>547761</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>632478</v>
+        <v>629778</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3397188367770124</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3178137025690653</v>
+        <v>0.3143394311654324</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3629552654934806</v>
+        <v>0.361405984498942</v>
       </c>
     </row>
     <row r="9">
@@ -5091,19 +5091,19 @@
         <v>28446</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19173</v>
+        <v>19992</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39368</v>
+        <v>41528</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01378737059718421</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009292948710745872</v>
+        <v>0.00969007717740528</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01908149205215348</v>
+        <v>0.02012842541891333</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -5112,19 +5112,19 @@
         <v>25822</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16899</v>
+        <v>16826</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37252</v>
+        <v>37207</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01305493425205084</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008543631188477984</v>
+        <v>0.008506430315576454</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01883316930595522</v>
+        <v>0.01881069282994058</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -5133,19 +5133,19 @@
         <v>54268</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41928</v>
+        <v>41639</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>70439</v>
+        <v>68679</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01342887342017979</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01037526668476385</v>
+        <v>0.01030364852046994</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01743036012913106</v>
+        <v>0.01699490076976497</v>
       </c>
     </row>
     <row r="11">
@@ -5162,19 +5162,19 @@
         <v>96793</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>80597</v>
+        <v>78639</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>119722</v>
+        <v>116987</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04691470324763192</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03906460086088329</v>
+        <v>0.03811534573223644</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05802810669256715</v>
+        <v>0.05670252245187573</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>55</v>
@@ -5183,19 +5183,19 @@
         <v>57104</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>43518</v>
+        <v>43623</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>73681</v>
+        <v>73718</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02887011685833987</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02200124967592308</v>
+        <v>0.02205450015060095</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03725054822890684</v>
+        <v>0.03726938707812493</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>145</v>
@@ -5204,19 +5204,19 @@
         <v>153898</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>130814</v>
+        <v>130169</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>182716</v>
+        <v>181470</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03808262749967646</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03237037937528703</v>
+        <v>0.03221088880339257</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04521394642784283</v>
+        <v>0.04490552131975516</v>
       </c>
     </row>
     <row r="12">
@@ -5233,19 +5233,19 @@
         <v>509693</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>464518</v>
+        <v>472448</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>550894</v>
+        <v>549721</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2470428505231109</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.225147296461948</v>
+        <v>0.2289907632296772</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2670125062001439</v>
+        <v>0.2664442932350916</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>403</v>
@@ -5254,19 +5254,19 @@
         <v>409729</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>371249</v>
+        <v>376106</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>444629</v>
+        <v>445074</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2071457221873075</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1876915688292929</v>
+        <v>0.1901470471328847</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2247898071910746</v>
+        <v>0.2250148856652425</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>878</v>
@@ -5275,19 +5275,19 @@
         <v>919422</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>866701</v>
+        <v>871308</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>975895</v>
+        <v>972287</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2275148629047956</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2144689552564013</v>
+        <v>0.2156090061380144</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2414893159276827</v>
+        <v>0.2405966286411563</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>917947</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>867571</v>
+        <v>873074</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>965467</v>
+        <v>962127</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4449194179486163</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4205030485294908</v>
+        <v>0.4231702459363494</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4679520026528841</v>
+        <v>0.4663331243435339</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>814</v>
@@ -5325,19 +5325,19 @@
         <v>846355</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>799008</v>
+        <v>799375</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>890817</v>
+        <v>886399</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4278897443479866</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4039525618352255</v>
+        <v>0.4041381513066066</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4503682935927754</v>
+        <v>0.4481345805522324</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1684</v>
@@ -5346,19 +5346,19 @@
         <v>1764302</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1703481</v>
+        <v>1694392</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1827753</v>
+        <v>1826108</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4365840998671238</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4215336049573343</v>
+        <v>0.4192846873232405</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4522853980100466</v>
+        <v>0.4518783962465043</v>
       </c>
     </row>
     <row r="14">
@@ -5375,19 +5375,19 @@
         <v>510297</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>471508</v>
+        <v>470949</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>552414</v>
+        <v>551395</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2473356576834567</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2285350764340234</v>
+        <v>0.2282641988952154</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2677493727869106</v>
+        <v>0.2672557064913058</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>601</v>
@@ -5396,19 +5396,19 @@
         <v>638964</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>596399</v>
+        <v>599016</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>680413</v>
+        <v>682953</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3230394823543152</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3015198145983053</v>
+        <v>0.3028428680106819</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3439948649912508</v>
+        <v>0.345278764853154</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1079</v>
@@ -5417,19 +5417,19 @@
         <v>1149261</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1095730</v>
+        <v>1089846</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1208308</v>
+        <v>1202745</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2843895363082243</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2711430014031622</v>
+        <v>0.2696871058604198</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2990010273487037</v>
+        <v>0.297624410556761</v>
       </c>
     </row>
     <row r="15">
@@ -5534,19 +5534,19 @@
         <v>6582</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2076</v>
+        <v>2694</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14715</v>
+        <v>13796</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01202930571580815</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003793401532447289</v>
+        <v>0.004923946554692899</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02689225011307989</v>
+        <v>0.02521366482683131</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -5555,19 +5555,19 @@
         <v>6582</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2624</v>
+        <v>2600</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13587</v>
+        <v>14395</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006027321297816407</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002402695497226066</v>
+        <v>0.002380592586984909</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01244181452150143</v>
+        <v>0.01318149217261493</v>
       </c>
     </row>
     <row r="17">
@@ -5584,19 +5584,19 @@
         <v>19295</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11400</v>
+        <v>11475</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30911</v>
+        <v>30724</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03541243910849971</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02092250027755972</v>
+        <v>0.02105943077377992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05673051571602984</v>
+        <v>0.05638803602192854</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -5605,19 +5605,19 @@
         <v>10628</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5055</v>
+        <v>5165</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18803</v>
+        <v>19270</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0194234832930848</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.009238075527924092</v>
+        <v>0.0094385362629309</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03436286746916972</v>
+        <v>0.03521630545723709</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -5626,19 +5626,19 @@
         <v>29923</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19311</v>
+        <v>20368</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43769</v>
+        <v>42570</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02740112272891417</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01768360436191916</v>
+        <v>0.01865149882523641</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04007992420308562</v>
+        <v>0.03898193138027553</v>
       </c>
     </row>
     <row r="18">
@@ -5655,19 +5655,19 @@
         <v>98880</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>80833</v>
+        <v>81518</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>119812</v>
+        <v>120398</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1814731170736414</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1483517641752711</v>
+        <v>0.1496087949968738</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2198885769861727</v>
+        <v>0.2209647742352369</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>82</v>
@@ -5676,19 +5676,19 @@
         <v>81852</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>67023</v>
+        <v>66100</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>99962</v>
+        <v>98855</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1495900252170504</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1224894482189247</v>
+        <v>0.1208024012030472</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1826878071876483</v>
+        <v>0.1806635314225818</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>172</v>
@@ -5697,19 +5697,19 @@
         <v>180732</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>157026</v>
+        <v>156562</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>204624</v>
+        <v>206446</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1654979940592741</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1437895048650398</v>
+        <v>0.1433649973745595</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1873754056169844</v>
+        <v>0.1890436971491931</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         <v>223373</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>200987</v>
+        <v>199357</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>247523</v>
+        <v>250490</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4099526548449412</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3688667153010577</v>
+        <v>0.3658758738720325</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4542747516297014</v>
+        <v>0.4597198199175489</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>212</v>
@@ -5747,19 +5747,19 @@
         <v>219540</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>196921</v>
+        <v>196564</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>243830</v>
+        <v>243769</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4012240683273752</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3598851348553153</v>
+        <v>0.359232928469389</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4456157428277726</v>
+        <v>0.4455030376775528</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>420</v>
@@ -5768,19 +5768,19 @@
         <v>442914</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>408803</v>
+        <v>412522</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>476214</v>
+        <v>476261</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4055791692373702</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3743437373738449</v>
+        <v>0.3777496250716454</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4360722078437071</v>
+        <v>0.4361159430369352</v>
       </c>
     </row>
     <row r="20">
@@ -5797,19 +5797,19 @@
         <v>203327</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>180488</v>
+        <v>178965</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>228132</v>
+        <v>225676</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3731617889729177</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3312451265820175</v>
+        <v>0.3284517063006732</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4186856649852341</v>
+        <v>0.4141783917566104</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>214</v>
@@ -5818,19 +5818,19 @@
         <v>228574</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>207439</v>
+        <v>203882</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>254344</v>
+        <v>252797</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4177331174466813</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.37910898922507</v>
+        <v>0.3726080663762752</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4648306010786761</v>
+        <v>0.4620039509576522</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>398</v>
@@ -5839,19 +5839,19 @@
         <v>431900</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>401364</v>
+        <v>400009</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>464870</v>
+        <v>464503</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3954943926766252</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.367531951272102</v>
+        <v>0.3662912195488056</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.425684942588105</v>
+        <v>0.4253490769279148</v>
       </c>
     </row>
     <row r="21">
@@ -5943,19 +5943,19 @@
         <v>38401</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27443</v>
+        <v>28659</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52614</v>
+        <v>52497</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01142734762129086</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008166591487395984</v>
+        <v>0.008528494342156134</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01565678851315248</v>
+        <v>0.0156219703696246</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>41</v>
@@ -5964,19 +5964,19 @@
         <v>43398</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31677</v>
+        <v>31915</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>59772</v>
+        <v>58475</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01234523154670657</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009011158808847697</v>
+        <v>0.009078749060268114</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01700317022086456</v>
+        <v>0.01663424703393286</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>79</v>
@@ -5985,19 +5985,19 @@
         <v>81799</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>63406</v>
+        <v>64598</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>99232</v>
+        <v>100350</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01189662903469935</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009221699442382471</v>
+        <v>0.009395039453369256</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01443212695719862</v>
+        <v>0.01459471537747149</v>
       </c>
     </row>
     <row r="23">
@@ -6014,19 +6014,19 @@
         <v>139981</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>117658</v>
+        <v>116365</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>165382</v>
+        <v>165083</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04165550378479532</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03501260789672168</v>
+        <v>0.03462791340046211</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04921437585578085</v>
+        <v>0.0491254191600641</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>86</v>
@@ -6035,19 +6035,19 @@
         <v>91104</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>74209</v>
+        <v>75416</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>112207</v>
+        <v>112917</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0259160360118307</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02111015783757934</v>
+        <v>0.02145338763080144</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0319193389623942</v>
+        <v>0.03212124301057229</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>216</v>
@@ -6056,19 +6056,19 @@
         <v>231085</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>200775</v>
+        <v>200861</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>262779</v>
+        <v>261827</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03360847356858469</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02920029503125951</v>
+        <v>0.02921281428817292</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03821803156302256</v>
+        <v>0.03807963845283977</v>
       </c>
     </row>
     <row r="24">
@@ -6085,19 +6085,19 @@
         <v>751975</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>702088</v>
+        <v>700871</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>799389</v>
+        <v>800452</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2237729274448279</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.208927533474641</v>
+        <v>0.2085653351347772</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2378821746979346</v>
+        <v>0.23819863560574</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>637</v>
@@ -6106,19 +6106,19 @@
         <v>661508</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>615500</v>
+        <v>617176</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>711058</v>
+        <v>709697</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1881773581886439</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1750896567709812</v>
+        <v>0.175566272983326</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2022728435492226</v>
+        <v>0.2018856916754348</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1346</v>
@@ -6127,19 +6127,19 @@
         <v>1413483</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1348085</v>
+        <v>1342835</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1485897</v>
+        <v>1478984</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2055741785735515</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1960628620805775</v>
+        <v>0.195299308411047</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2161058279322022</v>
+        <v>0.2151004929186784</v>
       </c>
     </row>
     <row r="25">
@@ -6156,19 +6156,19 @@
         <v>1498691</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1444602</v>
+        <v>1438883</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1561575</v>
+        <v>1556081</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4459806845157576</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4298849626225546</v>
+        <v>0.4281829525349509</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4646937164366174</v>
+        <v>0.4630587900347063</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1395</v>
@@ -6177,19 +6177,19 @@
         <v>1477576</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1419205</v>
+        <v>1421617</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1538316</v>
+        <v>1537821</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4203220664555076</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.403717481628532</v>
+        <v>0.4044035349768123</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4376006295849705</v>
+        <v>0.43745986289107</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2835</v>
@@ -6198,19 +6198,19 @@
         <v>2976267</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2892494</v>
+        <v>2892458</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3059479</v>
+        <v>3058044</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4328623454578322</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.420678548007922</v>
+        <v>0.4206733410946261</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4449645161564096</v>
+        <v>0.4447558767478149</v>
       </c>
     </row>
     <row r="26">
@@ -6227,19 +6227,19 @@
         <v>931391</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>881650</v>
+        <v>878259</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>982464</v>
+        <v>986810</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2771635366333283</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2623615253995235</v>
+        <v>0.2613523875815668</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2923617869983597</v>
+        <v>0.2936549714226916</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1151</v>
@@ -6248,19 +6248,19 @@
         <v>1241757</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1184804</v>
+        <v>1181731</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1298756</v>
+        <v>1304616</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3532393077973113</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.337037967410069</v>
+        <v>0.3361636606706055</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3694535605863234</v>
+        <v>0.3711205978687985</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2034</v>
@@ -6269,19 +6269,19 @@
         <v>2173148</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2100012</v>
+        <v>2097377</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2260992</v>
+        <v>2247869</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3160583733653322</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.30542161257909</v>
+        <v>0.3050383349431827</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3288341764662332</v>
+        <v>0.3269256308300529</v>
       </c>
     </row>
     <row r="27">
